--- a/biology/Médecine/Glucuronolactone/Glucuronolactone.xlsx
+++ b/biology/Médecine/Glucuronolactone/Glucuronolactone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le glucuronolactone est un composant chimique produit naturellement dans le foie humain par le métabolisme du glucose. Il est aussi utilisé dans l'alimentation.
@@ -514,11 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Structure
-Le glucuronolactone est une lactone (ester cyclique) dérivé de l'acide glucuronique. Contrairement au glucose, le Carbone 1 n'est pas asymétrique et ne se comporte pas en anomère.
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le glucuronolactone est une lactone (ester cyclique) dérivé de l'acide glucuronique. Contrairement au glucose, le Carbone 1 n'est pas asymétrique et ne se comporte pas en anomère.
 Sa formule chimique est C6H8O6.
-Propriétés physiques
-Le glucuronolactone est un solide incolore et inodore, soluble dans l'eau (257 g·L-1[2]).
 </t>
         </is>
       </c>
@@ -544,12 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Utilisation</t>
+          <t>Structure et propriétés</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">On trouve le glucuronolactone dans quelques boissons énergisantes comme Red Bull[3], Monster Energy, Rockstar, Rumba, Burn[4] et Red Rave. La plupart de ces boissons contiennent de la caféine, mais on y a ajouté du glucuronolactone parce qu'il a la réputation de lutter contre la fatigue et d'apporter un sentiment de bien-être. Cependant, à une si haute dose que celle contenue dans les boissons énergisantes, une suspicion de toxicité rénale est évoquée[5].
+          <t>Propriétés physiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le glucuronolactone est un solide incolore et inodore, soluble dans l'eau (257 g·L-1).
 </t>
         </is>
       </c>
@@ -575,16 +596,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve le glucuronolactone dans quelques boissons énergisantes comme Red Bull, Monster Energy, Rockstar, Rumba, Burn et Red Rave. La plupart de ces boissons contiennent de la caféine, mais on y a ajouté du glucuronolactone parce qu'il a la réputation de lutter contre la fatigue et d'apporter un sentiment de bien-être. Cependant, à une si haute dose que celle contenue dans les boissons énergisantes, une suspicion de toxicité rénale est évoquée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glucuronolactone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucuronolactone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Légende urbaine
-Le glucuronolactone a fait parler de lui en raison d'une légende urbaine selon laquelle il s'agissait d'une substance fabriquée par le gouvernement américain pendant la guerre du Viêt Nam. Cette rumeur continue à prétendre qu'il a été interdit pour avoir causé plusieurs tumeurs mortelles au cerveau.
-La fausseté de cette rumeur a depuis été démontrée, puisque l'article du British Medical Journal sur lequel elle s'appuie n'a jamais existé, et que la consommation n'en a jamais été interdite. En outre, aucun avertissement n'est paru sur le site Internet de la Food and Drug Administration concernant sa capacité à provoquer des tumeurs du cerveau ou d'autres maladies[6].
-Effets
-Le glucuronolactone est suspecté de toxicité rénale[7].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Légende urbaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le glucuronolactone a fait parler de lui en raison d'une légende urbaine selon laquelle il s'agissait d'une substance fabriquée par le gouvernement américain pendant la guerre du Viêt Nam. Cette rumeur continue à prétendre qu'il a été interdit pour avoir causé plusieurs tumeurs mortelles au cerveau.
+La fausseté de cette rumeur a depuis été démontrée, puisque l'article du British Medical Journal sur lequel elle s'appuie n'a jamais existé, et que la consommation n'en a jamais été interdite. En outre, aucun avertissement n'est paru sur le site Internet de la Food and Drug Administration concernant sa capacité à provoquer des tumeurs du cerveau ou d'autres maladies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glucuronolactone</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucuronolactone</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Santé</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le glucuronolactone est suspecté de toxicité rénale.
 </t>
         </is>
       </c>
